--- a/libro1.xlsx
+++ b/libro1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\docs_importantes\test_miles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A435C873-2119-4752-94D7-A96189C7EDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF5F10-29CC-4990-BA35-865D6B6C2620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C651807-CB12-46D4-A40F-9E30310D2D93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9C651807-CB12-46D4-A40F-9E30310D2D93}"/>
   </bookViews>
   <sheets>
     <sheet name="ENDPOINTS" sheetId="1" r:id="rId1"/>
-    <sheet name="TELEFONOS" sheetId="2" r:id="rId2"/>
-    <sheet name="ACID Postgress" sheetId="3" r:id="rId3"/>
+    <sheet name="TO DO" sheetId="4" r:id="rId2"/>
+    <sheet name="PREGUNTAS PARA HUANCAYO" sheetId="5" r:id="rId3"/>
+    <sheet name="TELEFONOS" sheetId="2" r:id="rId4"/>
+    <sheet name="ACID Postgress" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>METODO</t>
   </si>
@@ -117,6 +119,24 @@
 Strict-Transport-Security (hsts): Fuerza la conexión a través de HTTPS.
 Referrer-Policy: Controla la información de referencia enviada.
 hidePoweredBy: Elimina la cabecera X-Powered-By para ocultar la tecnología del servidor. </t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS</t>
+  </si>
+  <si>
+    <t>ENDPOINTS PARA  AUTENTICACION Y AUTORIZACION DE LOS USUARIOS(ADMINISTRADOR, NORMAL)</t>
+  </si>
+  <si>
+    <t>MOSTRAR LOGS DE SMS ENVIADOS(PROCESADO,PENDIENTE,ERROR)</t>
+  </si>
+  <si>
+    <t>MOSTRAR LOGS DE WHATSAPP ENVIADOS(PROCESADO,PENDIENTE,ERROR)</t>
+  </si>
+  <si>
+    <t>ENDPOINTS PARA AGREGAR,EDITAR,ELIMINAR,ACTUALIZAR USUARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUALES SON LOS WEBHOOK's QUE DESEAN? </t>
   </si>
 </sst>
 </file>
@@ -161,7 +181,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -322,28 +348,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,6 +400,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -412,6 +449,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +781,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -747,18 +796,18 @@
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="4.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -769,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -783,10 +832,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -797,10 +846,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -811,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -825,13 +874,20 @@
         <v>19</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A8:B8"/>
@@ -841,14 +897,7 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,6 +905,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C0797-8119-49AA-895B-7AF4413FC1CD}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF8846E-0353-4F5A-A09A-95BDE862D85F}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6193DC9F-2FFB-4667-98F1-B11CBEAC7FDE}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -869,14 +1010,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
@@ -885,7 +1026,7 @@
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7">
@@ -894,7 +1035,7 @@
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7">
@@ -903,7 +1044,7 @@
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7">
@@ -923,7 +1064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBCA55D-4818-43E9-8FB0-8AB2A1B8BDB4}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -947,197 +1088,197 @@
       <c r="H2" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
